--- a/po_analysis_by_asin/B0CNR6L1DH_po_data.xlsx
+++ b/po_analysis_by_asin/B0CNR6L1DH_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,23 +452,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>30</v>
@@ -476,23 +476,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>90</v>
@@ -500,79 +500,79 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45411</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45432</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45453</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>40</v>
@@ -580,39 +580,39 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45460</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45467</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45481</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45502</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45516</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>40</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45523</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>40</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45530</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>40</v>
@@ -636,57 +636,65 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45537</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45544</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45551</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45565</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45572</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45586</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45593</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B32" t="n">
         <v>240</v>
       </c>
     </row>
@@ -701,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,81 +731,89 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>390</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>400</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CNR6L1DH_po_data.xlsx
+++ b/po_analysis_by_asin/B0CNR6L1DH_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -725,7 +726,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -815,6 +816,593 @@
       </c>
       <c r="B12" t="n">
         <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>72</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.083675389752933</v>
+      </c>
+      <c r="D2" t="n">
+        <v>136.7819448314093</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>71</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.396111160019692</v>
+      </c>
+      <c r="D3" t="n">
+        <v>136.1324209959311</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>70</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.31504815478847</v>
+      </c>
+      <c r="D4" t="n">
+        <v>139.1745716882328</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>70</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.694177918289841</v>
+      </c>
+      <c r="D5" t="n">
+        <v>133.366690142545</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>70</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.796762316345282</v>
+      </c>
+      <c r="D6" t="n">
+        <v>130.0863788273732</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>69</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8115464121903048</v>
+      </c>
+      <c r="D7" t="n">
+        <v>129.9361616740409</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>69</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.463643291314131</v>
+      </c>
+      <c r="D8" t="n">
+        <v>135.9199989862379</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>68</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.690499092725108</v>
+      </c>
+      <c r="D9" t="n">
+        <v>133.0486433295623</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>68</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.377166599412183</v>
+      </c>
+      <c r="D10" t="n">
+        <v>129.2633425177958</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>67</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6102292393870432</v>
+      </c>
+      <c r="D11" t="n">
+        <v>133.42149215387</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>67</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.262867209376824</v>
+      </c>
+      <c r="D12" t="n">
+        <v>127.2474478363953</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.355796383683987</v>
+      </c>
+      <c r="D13" t="n">
+        <v>135.8774785036894</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>66</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.017219189966046</v>
+      </c>
+      <c r="D14" t="n">
+        <v>132.8108115133362</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>65</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.496157418110355</v>
+      </c>
+      <c r="D15" t="n">
+        <v>132.9246316347675</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>65</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4.042781374883705</v>
+      </c>
+      <c r="D16" t="n">
+        <v>126.7482962598011</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>65</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1328274703126939</v>
+      </c>
+      <c r="D17" t="n">
+        <v>127.2114694543218</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>64</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.083291553160853</v>
+      </c>
+      <c r="D18" t="n">
+        <v>127.6200654744113</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>64</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.596178125891023</v>
+      </c>
+      <c r="D19" t="n">
+        <v>128.6824309442698</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>63</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5183367310416106</v>
+      </c>
+      <c r="D20" t="n">
+        <v>126.1715777968234</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>63</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-6.121762628806001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>129.122501132057</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>62</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.004122518131218</v>
+      </c>
+      <c r="D22" t="n">
+        <v>122.8657344168548</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>62</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3245645936231329</v>
+      </c>
+      <c r="D23" t="n">
+        <v>123.1856300554967</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>61</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.527194677722289</v>
+      </c>
+      <c r="D24" t="n">
+        <v>130.7903231470366</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>61</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-4.261826676725969</v>
+      </c>
+      <c r="D25" t="n">
+        <v>116.4243023631703</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>61</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.424143204139174</v>
+      </c>
+      <c r="D26" t="n">
+        <v>122.0071479139333</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>60</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.666587861441401</v>
+      </c>
+      <c r="D27" t="n">
+        <v>123.2042321955096</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>60</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.116646256360271</v>
+      </c>
+      <c r="D28" t="n">
+        <v>124.1016915502816</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.573059494893128</v>
+      </c>
+      <c r="D29" t="n">
+        <v>122.215142255188</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>59</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.998190352721078</v>
+      </c>
+      <c r="D30" t="n">
+        <v>126.6729138048099</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>59</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.620764583155692</v>
+      </c>
+      <c r="D31" t="n">
+        <v>121.2722966148737</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>58</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-7.988981466917333</v>
+      </c>
+      <c r="D32" t="n">
+        <v>122.4343683238102</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>58</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-9.264757561239932</v>
+      </c>
+      <c r="D33" t="n">
+        <v>125.7078373940284</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>58</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-2.971953756440724</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120.8874252159201</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>58</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-3.218637580814448</v>
+      </c>
+      <c r="D35" t="n">
+        <v>119.1618115917357</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>57</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-8.791146593422026</v>
+      </c>
+      <c r="D36" t="n">
+        <v>118.2581069895916</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>57</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.787724267059895</v>
+      </c>
+      <c r="D37" t="n">
+        <v>119.3642933056399</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>57</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-3.292267590225886</v>
+      </c>
+      <c r="D38" t="n">
+        <v>119.6316606910875</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>56</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-11.37089370295639</v>
+      </c>
+      <c r="D39" t="n">
+        <v>121.7546522501072</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>56</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-9.247280591488266</v>
+      </c>
+      <c r="D40" t="n">
+        <v>120.9912476430019</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CNR6L1DH_po_data.xlsx
+++ b/po_analysis_by_asin/B0CNR6L1DH_po_data.xlsx
@@ -829,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,16 +848,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -866,12 +856,6 @@
       <c r="B2" t="n">
         <v>72</v>
       </c>
-      <c r="C2" t="n">
-        <v>9.083675389752933</v>
-      </c>
-      <c r="D2" t="n">
-        <v>136.7819448314093</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -880,12 +864,6 @@
       <c r="B3" t="n">
         <v>71</v>
       </c>
-      <c r="C3" t="n">
-        <v>4.396111160019692</v>
-      </c>
-      <c r="D3" t="n">
-        <v>136.1324209959311</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -894,12 +872,6 @@
       <c r="B4" t="n">
         <v>70</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.31504815478847</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139.1745716882328</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -908,12 +880,6 @@
       <c r="B5" t="n">
         <v>70</v>
       </c>
-      <c r="C5" t="n">
-        <v>3.694177918289841</v>
-      </c>
-      <c r="D5" t="n">
-        <v>133.366690142545</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -922,12 +888,6 @@
       <c r="B6" t="n">
         <v>70</v>
       </c>
-      <c r="C6" t="n">
-        <v>4.796762316345282</v>
-      </c>
-      <c r="D6" t="n">
-        <v>130.0863788273732</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -936,12 +896,6 @@
       <c r="B7" t="n">
         <v>69</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.8115464121903048</v>
-      </c>
-      <c r="D7" t="n">
-        <v>129.9361616740409</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -950,12 +904,6 @@
       <c r="B8" t="n">
         <v>69</v>
       </c>
-      <c r="C8" t="n">
-        <v>9.463643291314131</v>
-      </c>
-      <c r="D8" t="n">
-        <v>135.9199989862379</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -964,12 +912,6 @@
       <c r="B9" t="n">
         <v>68</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.690499092725108</v>
-      </c>
-      <c r="D9" t="n">
-        <v>133.0486433295623</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -978,12 +920,6 @@
       <c r="B10" t="n">
         <v>68</v>
       </c>
-      <c r="C10" t="n">
-        <v>3.377166599412183</v>
-      </c>
-      <c r="D10" t="n">
-        <v>129.2633425177958</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -992,12 +928,6 @@
       <c r="B11" t="n">
         <v>67</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.6102292393870432</v>
-      </c>
-      <c r="D11" t="n">
-        <v>133.42149215387</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1006,12 +936,6 @@
       <c r="B12" t="n">
         <v>67</v>
       </c>
-      <c r="C12" t="n">
-        <v>7.262867209376824</v>
-      </c>
-      <c r="D12" t="n">
-        <v>127.2474478363953</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1020,12 +944,6 @@
       <c r="B13" t="n">
         <v>67</v>
       </c>
-      <c r="C13" t="n">
-        <v>6.355796383683987</v>
-      </c>
-      <c r="D13" t="n">
-        <v>135.8774785036894</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1034,12 +952,6 @@
       <c r="B14" t="n">
         <v>66</v>
       </c>
-      <c r="C14" t="n">
-        <v>4.017219189966046</v>
-      </c>
-      <c r="D14" t="n">
-        <v>132.8108115133362</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1048,12 +960,6 @@
       <c r="B15" t="n">
         <v>65</v>
       </c>
-      <c r="C15" t="n">
-        <v>5.496157418110355</v>
-      </c>
-      <c r="D15" t="n">
-        <v>132.9246316347675</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1062,12 +968,6 @@
       <c r="B16" t="n">
         <v>65</v>
       </c>
-      <c r="C16" t="n">
-        <v>-4.042781374883705</v>
-      </c>
-      <c r="D16" t="n">
-        <v>126.7482962598011</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1076,12 +976,6 @@
       <c r="B17" t="n">
         <v>65</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.1328274703126939</v>
-      </c>
-      <c r="D17" t="n">
-        <v>127.2114694543218</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1090,12 +984,6 @@
       <c r="B18" t="n">
         <v>64</v>
       </c>
-      <c r="C18" t="n">
-        <v>2.083291553160853</v>
-      </c>
-      <c r="D18" t="n">
-        <v>127.6200654744113</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1104,12 +992,6 @@
       <c r="B19" t="n">
         <v>64</v>
       </c>
-      <c r="C19" t="n">
-        <v>3.596178125891023</v>
-      </c>
-      <c r="D19" t="n">
-        <v>128.6824309442698</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1118,12 +1000,6 @@
       <c r="B20" t="n">
         <v>63</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.5183367310416106</v>
-      </c>
-      <c r="D20" t="n">
-        <v>126.1715777968234</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1132,12 +1008,6 @@
       <c r="B21" t="n">
         <v>63</v>
       </c>
-      <c r="C21" t="n">
-        <v>-6.121762628806001</v>
-      </c>
-      <c r="D21" t="n">
-        <v>129.122501132057</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1146,12 +1016,6 @@
       <c r="B22" t="n">
         <v>62</v>
       </c>
-      <c r="C22" t="n">
-        <v>2.004122518131218</v>
-      </c>
-      <c r="D22" t="n">
-        <v>122.8657344168548</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1160,12 +1024,6 @@
       <c r="B23" t="n">
         <v>62</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.3245645936231329</v>
-      </c>
-      <c r="D23" t="n">
-        <v>123.1856300554967</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1174,12 +1032,6 @@
       <c r="B24" t="n">
         <v>61</v>
       </c>
-      <c r="C24" t="n">
-        <v>-4.527194677722289</v>
-      </c>
-      <c r="D24" t="n">
-        <v>130.7903231470366</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1188,12 +1040,6 @@
       <c r="B25" t="n">
         <v>61</v>
       </c>
-      <c r="C25" t="n">
-        <v>-4.261826676725969</v>
-      </c>
-      <c r="D25" t="n">
-        <v>116.4243023631703</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1202,12 +1048,6 @@
       <c r="B26" t="n">
         <v>61</v>
       </c>
-      <c r="C26" t="n">
-        <v>-3.424143204139174</v>
-      </c>
-      <c r="D26" t="n">
-        <v>122.0071479139333</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1216,12 +1056,6 @@
       <c r="B27" t="n">
         <v>60</v>
       </c>
-      <c r="C27" t="n">
-        <v>-4.666587861441401</v>
-      </c>
-      <c r="D27" t="n">
-        <v>123.2042321955096</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1230,12 +1064,6 @@
       <c r="B28" t="n">
         <v>60</v>
       </c>
-      <c r="C28" t="n">
-        <v>-1.116646256360271</v>
-      </c>
-      <c r="D28" t="n">
-        <v>124.1016915502816</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1244,12 +1072,6 @@
       <c r="B29" t="n">
         <v>60</v>
       </c>
-      <c r="C29" t="n">
-        <v>-2.573059494893128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>122.215142255188</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1258,12 +1080,6 @@
       <c r="B30" t="n">
         <v>59</v>
       </c>
-      <c r="C30" t="n">
-        <v>-3.998190352721078</v>
-      </c>
-      <c r="D30" t="n">
-        <v>126.6729138048099</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1272,12 +1088,6 @@
       <c r="B31" t="n">
         <v>59</v>
       </c>
-      <c r="C31" t="n">
-        <v>-5.620764583155692</v>
-      </c>
-      <c r="D31" t="n">
-        <v>121.2722966148737</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1286,12 +1096,6 @@
       <c r="B32" t="n">
         <v>58</v>
       </c>
-      <c r="C32" t="n">
-        <v>-7.988981466917333</v>
-      </c>
-      <c r="D32" t="n">
-        <v>122.4343683238102</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1300,12 +1104,6 @@
       <c r="B33" t="n">
         <v>58</v>
       </c>
-      <c r="C33" t="n">
-        <v>-9.264757561239932</v>
-      </c>
-      <c r="D33" t="n">
-        <v>125.7078373940284</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1314,12 +1112,6 @@
       <c r="B34" t="n">
         <v>58</v>
       </c>
-      <c r="C34" t="n">
-        <v>-2.971953756440724</v>
-      </c>
-      <c r="D34" t="n">
-        <v>120.8874252159201</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1328,12 +1120,6 @@
       <c r="B35" t="n">
         <v>58</v>
       </c>
-      <c r="C35" t="n">
-        <v>-3.218637580814448</v>
-      </c>
-      <c r="D35" t="n">
-        <v>119.1618115917357</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1342,12 +1128,6 @@
       <c r="B36" t="n">
         <v>57</v>
       </c>
-      <c r="C36" t="n">
-        <v>-8.791146593422026</v>
-      </c>
-      <c r="D36" t="n">
-        <v>118.2581069895916</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1356,12 +1136,6 @@
       <c r="B37" t="n">
         <v>57</v>
       </c>
-      <c r="C37" t="n">
-        <v>-3.787724267059895</v>
-      </c>
-      <c r="D37" t="n">
-        <v>119.3642933056399</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1370,12 +1144,6 @@
       <c r="B38" t="n">
         <v>57</v>
       </c>
-      <c r="C38" t="n">
-        <v>-3.292267590225886</v>
-      </c>
-      <c r="D38" t="n">
-        <v>119.6316606910875</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1384,12 +1152,6 @@
       <c r="B39" t="n">
         <v>56</v>
       </c>
-      <c r="C39" t="n">
-        <v>-11.37089370295639</v>
-      </c>
-      <c r="D39" t="n">
-        <v>121.7546522501072</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1397,12 +1159,6 @@
       </c>
       <c r="B40" t="n">
         <v>56</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-9.247280591488266</v>
-      </c>
-      <c r="D40" t="n">
-        <v>120.9912476430019</v>
       </c>
     </row>
   </sheetData>
